--- a/Physics/Lab1_07V/calcs_1_07V.xlsx
+++ b/Physics/Lab1_07V/calcs_1_07V.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ITMO\Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ITMO\Physics\Lab1_07V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B290C86-F3FC-49FD-AD26-F3884C290173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FAD28A-2FAD-445B-8BBB-FA1DF3D6F743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>h0=…cm</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Epolni</t>
+  </si>
+  <si>
+    <t>Ic/Iteor</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -236,61 +242,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -355,54 +311,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -686,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,15 +635,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="L1">
         <v>1</v>
       </c>
@@ -755,13 +688,13 @@
       <c r="G2" s="1">
         <v>70</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="1">
         <v>80</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="9"/>
       <c r="K2" t="s">
         <v>19</v>
       </c>
@@ -816,13 +749,13 @@
       <c r="G3" s="1">
         <v>6454.2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="1">
         <v>6979.1</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="11"/>
       <c r="K3" t="s">
         <v>20</v>
       </c>
@@ -877,13 +810,13 @@
       <c r="G4" s="1">
         <v>6452.3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="1">
         <v>6981.5</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="11">
         <v>9.82</v>
       </c>
       <c r="K4" t="s">
@@ -916,13 +849,13 @@
       <c r="G5" s="1">
         <v>6459.3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="1">
         <v>6979.1</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="11">
         <v>0.47</v>
       </c>
       <c r="K5" t="s">
@@ -979,13 +912,13 @@
       <c r="G6" s="1">
         <v>6459.3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="1">
         <v>6981</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="11">
         <v>0.01</v>
       </c>
       <c r="K6" t="s">
@@ -996,35 +929,35 @@
         <v>0.2904712531892466</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>2615.6999999999998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>3716.1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>4561.8999999999996</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>5272.6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>5894.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>6453.2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="1">
         <v>6971.9</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="11">
         <f>2.5*0.001</f>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -1036,49 +969,49 @@
         <v>0.58094250637849321</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f>B2-$A$2</f>
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" ref="C8:H8" si="3">C2-$A$2</f>
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="11">
         <f>0.1*0.001</f>
         <v>1E-4</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="14">
         <f>L7/L4</f>
         <v>1.7032251913467428E-3</v>
       </c>
@@ -1092,7 +1025,7 @@
         <v>2613.56</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:H9" si="4">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C9:G9" si="4">AVERAGE(C3:C7)</f>
         <v>3715.06</v>
       </c>
       <c r="D9" s="1">
@@ -1111,20 +1044,20 @@
         <f t="shared" si="4"/>
         <v>6455.66</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="1">
         <f>AVERAGE(H3:H7)</f>
         <v>6978.5199999999995</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="11">
         <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="13">
         <f>(L4-1)*J5*J7*J7</f>
         <v>9.9899613811010629E-4</v>
       </c>
@@ -1157,12 +1090,16 @@
         <f t="shared" si="5"/>
         <v>204.626931034796</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="1">
         <f t="shared" si="5"/>
         <v>239.11573022686397</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="K10" t="s">
         <v>30</v>
       </c>
@@ -1173,8 +1110,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
       <c r="K11" t="s">
         <v>31</v>
       </c>
@@ -1186,37 +1125,37 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
       <c r="K12" t="s">
         <v>32</v>
       </c>
       <c r="L12">
-        <f>J5*J7*J7</f>
-        <v>2.9375000000000003E-6</v>
+        <f>J5*J10*J10</f>
+        <v>1.9857500000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
       <c r="K13" t="s">
         <v>33</v>
       </c>
       <c r="L13">
         <f>L12/L9</f>
-        <v>2.9404518075086274E-3</v>
+        <v>1.9877454218758319</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1241,11 +1180,18 @@
       <c r="G14" s="1">
         <v>70</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="1">
         <v>80</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14">
+        <f>L9/L12</f>
+        <v>0.50308253209623888</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1269,11 +1215,11 @@
       <c r="G15" s="1">
         <v>21.5</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1297,11 +1243,11 @@
       <c r="G16" s="1">
         <v>22.4</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="1">
         <v>20.8</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1325,11 +1271,11 @@
       <c r="G17" s="3">
         <v>22.8</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="3">
         <v>20.7</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1363,327 +1309,331 @@
         <f t="shared" si="6"/>
         <v>0.25125628140703521</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <f t="shared" ref="B19:H19" si="7">2*$J$7/(B16*0.001)</f>
         <v>6.1957868649318459E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f t="shared" si="7"/>
         <v>0.11389521640091116</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f t="shared" si="7"/>
         <v>0.14836795252225518</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <f t="shared" si="7"/>
         <v>0.17543859649122806</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="7"/>
         <v>0.20080321285140565</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f t="shared" si="7"/>
         <v>0.22321428571428573</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <f t="shared" si="7"/>
         <v>0.24038461538461536</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f t="shared" ref="B20:H20" si="8">2*$J$7/(B17*0.001)</f>
         <v>6.1199510403916767E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f t="shared" si="8"/>
         <v>0.11337868480725624</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f t="shared" si="8"/>
         <v>0.14749262536873156</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <f t="shared" si="8"/>
         <v>0.17482517482517482</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f t="shared" si="8"/>
         <v>0.19920318725099601</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f t="shared" si="8"/>
         <v>0.21929824561403508</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <f t="shared" si="8"/>
         <v>0.24154589371980678</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f>$J$9-(B8*0.01)</f>
         <v>0.9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <f t="shared" ref="C21:H21" si="9">$J$9-(C8*0.01)</f>
         <v>0.8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f t="shared" si="9"/>
         <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <f>$J$5*($L$9/($J$5*$J$7*$J$7)+1)*B18*B18/2</f>
         <v>0.71337389683880836</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f t="shared" ref="C22:H22" si="10">$J$5*($L$9/($J$5*$J$7*$J$7)+1)*C18*C18/2</f>
         <v>1.4326026453574687</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f t="shared" si="10"/>
         <v>2.1400607418302924</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f t="shared" si="10"/>
         <v>2.8970597756512486</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f t="shared" si="10"/>
         <v>3.5675680112165296</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f t="shared" si="10"/>
         <v>4.3350292616986748</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f t="shared" si="10"/>
         <v>5.0601431181541203</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
         <f t="shared" ref="B23:H23" si="11">$J$5*($L$9/($J$5*$J$7*$J$7)+1)*B19*B19/2</f>
         <v>0.30769602352099001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f t="shared" si="11"/>
         <v>1.0397762964182484</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f t="shared" si="11"/>
         <v>1.7644491685408978</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <f t="shared" si="11"/>
         <v>2.4670572806650815</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f t="shared" si="11"/>
         <v>3.2319918650025206</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f t="shared" si="11"/>
         <v>3.9936768100689828</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f t="shared" si="11"/>
         <v>4.6317198507308897</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
         <f t="shared" ref="B24:H24" si="12">$J$5*($L$9/($J$5*$J$7*$J$7)+1)*B20*B20/2</f>
         <v>0.30020978266611326</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <f t="shared" si="12"/>
         <v>1.0303666045630229</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <f t="shared" si="12"/>
         <v>1.743691123659046</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <f t="shared" si="12"/>
         <v>2.4498352929485701</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f t="shared" si="12"/>
         <v>3.1806912211238112</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <f t="shared" si="12"/>
         <v>3.8547770010391895</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f t="shared" si="12"/>
         <v>4.6765788611641179</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <f>$J$5*$J$4*B21</f>
         <v>4.1538599999999999</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <f t="shared" ref="C25:H25" si="13">$J$5*$J$4*C21</f>
         <v>3.6923200000000005</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f t="shared" si="13"/>
         <v>3.2307799999999998</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <f t="shared" si="13"/>
         <v>2.7692399999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f t="shared" si="13"/>
         <v>2.3077000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f t="shared" si="13"/>
         <v>1.8461600000000002</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f t="shared" si="13"/>
         <v>1.3846199999999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f>B22+B$25</f>
         <v>4.8672338968388082</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f t="shared" ref="C26:H26" si="14">C22+C$25</f>
         <v>5.1249226453574694</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <f t="shared" si="14"/>
         <v>5.3708407418302926</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f t="shared" si="14"/>
         <v>5.6662997756512485</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f t="shared" si="14"/>
         <v>5.8752680112165301</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f t="shared" si="14"/>
         <v>6.181189261698675</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f t="shared" si="14"/>
         <v>6.4447631181541203</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
         <f t="shared" ref="B27:H27" si="15">B23+B$25</f>
         <v>4.4615560235209895</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <f t="shared" si="15"/>
         <v>4.7320962964182485</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <f t="shared" si="15"/>
         <v>4.9952291685408978</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <f t="shared" si="15"/>
         <v>5.2362972806650809</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <f t="shared" si="15"/>
         <v>5.5396918650025206</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <f t="shared" si="15"/>
         <v>5.8398368100689826</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f t="shared" si="15"/>
         <v>6.0163398507308896</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
         <f t="shared" ref="B28:H28" si="16">B24+B$25</f>
         <v>4.4540697826661129</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <f t="shared" si="16"/>
         <v>4.7226866045630231</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <f t="shared" si="16"/>
         <v>4.974471123659046</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <f t="shared" si="16"/>
         <v>5.2190752929485704</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <f t="shared" si="16"/>
         <v>5.4883912211238108</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <f t="shared" si="16"/>
         <v>5.7009370010391898</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f t="shared" si="16"/>
         <v>6.0611988611641179</v>
       </c>
@@ -1699,7 +1649,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f ca="1">NOW()</f>
-        <v>44172.104376041665</v>
+        <v>44173.442417824073</v>
       </c>
       <c r="B39" s="5">
         <v>0.91666666666666663</v>
